--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H2">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I2">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J2">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N2">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O2">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P2">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q2">
-        <v>20.14599862979467</v>
+        <v>4.840215572703333</v>
       </c>
       <c r="R2">
-        <v>181.313987668152</v>
+        <v>43.56194015433</v>
       </c>
       <c r="S2">
-        <v>0.02702529318476725</v>
+        <v>0.007278638550101388</v>
       </c>
       <c r="T2">
-        <v>0.02702529318476724</v>
+        <v>0.007278638550101386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H3">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I3">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J3">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P3">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q3">
-        <v>10.83040033438267</v>
+        <v>15.32996641180333</v>
       </c>
       <c r="R3">
-        <v>97.47360300944401</v>
+        <v>137.96969770623</v>
       </c>
       <c r="S3">
-        <v>0.01452867885696248</v>
+        <v>0.02305295762568512</v>
       </c>
       <c r="T3">
-        <v>0.01452867885696247</v>
+        <v>0.02305295762568512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H4">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I4">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J4">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N4">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O4">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P4">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q4">
-        <v>49.94466988974401</v>
+        <v>96.67363461145</v>
       </c>
       <c r="R4">
-        <v>449.5020290076961</v>
+        <v>870.06271150305</v>
       </c>
       <c r="S4">
-        <v>0.06699937648117003</v>
+        <v>0.1453762612619163</v>
       </c>
       <c r="T4">
-        <v>0.06699937648117001</v>
+        <v>0.1453762612619163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H5">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I5">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J5">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N5">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O5">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P5">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q5">
-        <v>30.90745935818934</v>
+        <v>28.66138315802667</v>
       </c>
       <c r="R5">
-        <v>278.167134223704</v>
+        <v>257.95244842224</v>
       </c>
       <c r="S5">
-        <v>0.04146149149022643</v>
+        <v>0.0431005283173213</v>
       </c>
       <c r="T5">
-        <v>0.04146149149022641</v>
+        <v>0.0431005283173213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N6">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O6">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P6">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q6">
-        <v>49.63861468181934</v>
+        <v>8.425561715440333</v>
       </c>
       <c r="R6">
-        <v>446.747532136374</v>
+        <v>75.83005543896299</v>
       </c>
       <c r="S6">
-        <v>0.06658881198760075</v>
+        <v>0.01267022457721042</v>
       </c>
       <c r="T6">
-        <v>0.06658881198760074</v>
+        <v>0.01267022457721042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P7">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q7">
-        <v>26.68550112245034</v>
+        <v>26.68550112245033</v>
       </c>
       <c r="R7">
         <v>240.169510102053</v>
       </c>
       <c r="S7">
-        <v>0.03579785270858058</v>
+        <v>0.04012922860172489</v>
       </c>
       <c r="T7">
-        <v>0.03579785270858057</v>
+        <v>0.04012922860172489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N8">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O8">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P8">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q8">
-        <v>123.060875245028</v>
+        <v>168.283759770595</v>
       </c>
       <c r="R8">
-        <v>1107.547877205252</v>
+        <v>1514.553837935355</v>
       </c>
       <c r="S8">
-        <v>0.1650827191138771</v>
+        <v>0.2530624189819177</v>
       </c>
       <c r="T8">
-        <v>0.1650827191138771</v>
+        <v>0.2530624189819177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N9">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O9">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P9">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q9">
-        <v>76.15425246808866</v>
+        <v>49.89204489356266</v>
       </c>
       <c r="R9">
-        <v>685.3882722127979</v>
+        <v>449.028404042064</v>
       </c>
       <c r="S9">
-        <v>0.1021587977859332</v>
+        <v>0.07502685693456659</v>
       </c>
       <c r="T9">
-        <v>0.1021587977859332</v>
+        <v>0.07502685693456659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H10">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N10">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O10">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P10">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q10">
-        <v>20.71242701851533</v>
+        <v>3.703404313583667</v>
       </c>
       <c r="R10">
-        <v>186.411843166638</v>
+        <v>33.33063882225299</v>
       </c>
       <c r="S10">
-        <v>0.02778514101135807</v>
+        <v>0.005569120010992952</v>
       </c>
       <c r="T10">
-        <v>0.02778514101135807</v>
+        <v>0.005569120010992951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H11">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N11">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O11">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P11">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q11">
-        <v>11.13490974706233</v>
+        <v>11.72944941889366</v>
       </c>
       <c r="R11">
-        <v>100.214187723561</v>
+        <v>105.565044770043</v>
       </c>
       <c r="S11">
-        <v>0.01493716970948435</v>
+        <v>0.01763855791739888</v>
       </c>
       <c r="T11">
-        <v>0.01493716970948434</v>
+        <v>0.01763855791739888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H12">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N12">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O12">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P12">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q12">
-        <v>51.348922883636</v>
+        <v>73.96810122444499</v>
       </c>
       <c r="R12">
-        <v>462.1403059527241</v>
+        <v>665.712911020005</v>
       </c>
       <c r="S12">
-        <v>0.06888314256111963</v>
+        <v>0.1112320443094128</v>
       </c>
       <c r="T12">
-        <v>0.06888314256111962</v>
+        <v>0.1112320443094128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H13">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N13">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O13">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P13">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q13">
-        <v>31.77645884168066</v>
+        <v>21.92974433190933</v>
       </c>
       <c r="R13">
-        <v>285.988129575126</v>
+        <v>197.367698987184</v>
       </c>
       <c r="S13">
-        <v>0.04262722997012643</v>
+        <v>0.03297759781367614</v>
       </c>
       <c r="T13">
-        <v>0.04262722997012643</v>
+        <v>0.03297759781367614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H14">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N14">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O14">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P14">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q14">
-        <v>43.79633109920334</v>
+        <v>5.151613979308556</v>
       </c>
       <c r="R14">
-        <v>394.1669798928301</v>
+        <v>46.364525813777</v>
       </c>
       <c r="S14">
-        <v>0.0587515521133128</v>
+        <v>0.007746914479698262</v>
       </c>
       <c r="T14">
-        <v>0.05875155211331279</v>
+        <v>0.00774691447969826</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H15">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N15">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O15">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P15">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q15">
-        <v>23.54471514159834</v>
+        <v>16.31622973876522</v>
       </c>
       <c r="R15">
-        <v>211.902436274385</v>
+        <v>146.846067648887</v>
       </c>
       <c r="S15">
-        <v>0.03158457623999198</v>
+        <v>0.02453608459892583</v>
       </c>
       <c r="T15">
-        <v>0.03158457623999197</v>
+        <v>0.02453608459892583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H16">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N16">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O16">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P16">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q16">
-        <v>108.57705985826</v>
+        <v>102.8931955641717</v>
       </c>
       <c r="R16">
-        <v>977.1935387243402</v>
+        <v>926.0387600775451</v>
       </c>
       <c r="S16">
-        <v>0.1456530862396572</v>
+        <v>0.1547291372723336</v>
       </c>
       <c r="T16">
-        <v>0.1456530862396572</v>
+        <v>0.1547291372723336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H17">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N17">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O17">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P17">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q17">
-        <v>67.19117519865667</v>
+        <v>30.50533182362845</v>
       </c>
       <c r="R17">
-        <v>604.72057678791</v>
+        <v>274.547986412656</v>
       </c>
       <c r="S17">
-        <v>0.09013508054583172</v>
+        <v>0.04587342874711787</v>
       </c>
       <c r="T17">
-        <v>0.09013508054583171</v>
+        <v>0.04587342874711787</v>
       </c>
     </row>
   </sheetData>
